--- a/public_data/parameters.xlsx
+++ b/public_data/parameters.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -71,6 +71,27 @@
   </si>
   <si>
     <t>severe_cost_USD</t>
+  </si>
+  <si>
+    <t>hhlds_magude</t>
+  </si>
+  <si>
+    <t>treated_mda1_2</t>
+  </si>
+  <si>
+    <t>llin_distributed</t>
+  </si>
+  <si>
+    <t>hhlds_sprayed</t>
+  </si>
+  <si>
+    <t>people_protected_irs</t>
+  </si>
+  <si>
+    <t>structures_sprayed</t>
+  </si>
+  <si>
+    <t>tested_mda1_2</t>
   </si>
 </sst>
 </file>
@@ -80,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,19 +136,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,13 +166,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -157,8 +177,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -462,527 +491,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.77734375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="11.5546875" style="4"/>
-    <col min="6" max="6" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" style="3"/>
+    <col min="6" max="6" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="H1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>2015</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E2" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G2" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="B2" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G2" s="7">
+        <v>108.02</v>
+      </c>
+      <c r="H2" s="8">
+        <v>36820</v>
+      </c>
+      <c r="I2" s="8">
+        <v>10809</v>
+      </c>
+      <c r="J2" s="8">
+        <v>6000</v>
+      </c>
+      <c r="K2" s="8">
+        <v>16401</v>
+      </c>
+      <c r="L2" s="8">
+        <v>35799</v>
+      </c>
+      <c r="M2" s="8">
+        <v>44848</v>
+      </c>
+      <c r="N2" s="8">
+        <v>28713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2016</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G3" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="B3" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G3" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2017</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G4" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="B4" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G4" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>2018</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G5" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="B5" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G5" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>2019</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G6" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="B6" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G6" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>2020</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G7" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="B7" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G7" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>2021</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G8" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="B8" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G8" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>2022</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E9" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G9" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="B9" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G9" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>2023</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G10" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="B10" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G10" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>2024</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E11" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G11" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="B11" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G11" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>2025</v>
       </c>
-      <c r="B12" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G12" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="B12" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G12" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>2026</v>
       </c>
-      <c r="B13" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G13" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="B13" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G13" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>2027</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G14" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="B14" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G14" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>2028</v>
       </c>
-      <c r="B15" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E15" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G15" s="8">
-        <v>108.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="B15" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G15" s="7">
+        <v>108.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>2029</v>
       </c>
-      <c r="B16" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="B16" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G16" s="7">
         <v>108.02</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>2030</v>
       </c>
-      <c r="B17" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="B17" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G17" s="7">
         <v>108.02</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>2031</v>
       </c>
-      <c r="B18" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="B18" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G18" s="7">
         <v>108.02</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>2032</v>
       </c>
-      <c r="B19" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E19" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="B19" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G19" s="7">
         <v>108.02</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>2033</v>
       </c>
-      <c r="B20" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="B20" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G20" s="7">
         <v>108.02</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>2034</v>
       </c>
-      <c r="B21" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E21" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="B21" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G21" s="7">
         <v>108.02</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>2035</v>
       </c>
-      <c r="B22" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="B22" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="G22" s="7">
         <v>108.02</v>
       </c>
     </row>

--- a/public_data/parameters.xlsx
+++ b/public_data/parameters.xlsx
@@ -15,40 +15,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Autor</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-we only have information disagregated by age for those under 15….(see Quique's paper)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
@@ -101,36 +67,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,41 +99,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -488,249 +420,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="6" customWidth="1"/>
-    <col min="3" max="4" width="11.5546875" style="1"/>
-    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="14.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="24.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="3" customWidth="1"/>
+    <col min="3" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>0.73</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>0.27</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>0.27</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>1.71</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>108.02</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>36820</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>10809</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>6000</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>16401</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>35799</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>44848</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>28713</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
